--- a/UseMapEditor/Data/StarCraftExcelTemplate.xlsx
+++ b/UseMapEditor/Data/StarCraftExcelTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\repos\Buizz\UseMapEditor\UseMapEditor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F6CBCA-E15C-4756-B51D-E517A14999E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563A5359-F710-4A7B-AA3F-DD6D21A2797A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20385" yWindow="-8520" windowWidth="17445" windowHeight="11385" tabRatio="741" activeTab="3" xr2:uid="{6234A1B5-D49E-4DB1-B578-541369C99DC1}"/>
+    <workbookView xWindow="-21720" yWindow="-10800" windowWidth="20910" windowHeight="19440" tabRatio="741" activeTab="9" xr2:uid="{6234A1B5-D49E-4DB1-B578-541369C99DC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="607">
   <si>
     <t>지형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Player 9</t>
   </si>
   <si>
@@ -1888,6 +1880,51 @@
   </si>
   <si>
     <t>랜덤시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+  </si>
+  <si>
+    <t>사용안함</t>
+  </si>
+  <si>
+    <t>기본</t>
+  </si>
+  <si>
+    <t>수정</t>
+  </si>
+  <si>
+    <t>불가</t>
+  </si>
+  <si>
+    <t>연구가능</t>
+  </si>
+  <si>
+    <t>기본값</t>
+  </si>
+  <si>
+    <t>트리거 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브리핑 파일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1921,13 +1958,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2011,7 +2048,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2027,11 +2064,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2039,29 +2073,222 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2374,22 +2601,22 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -2400,48 +2627,48 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2465,11 +2692,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBEF6B2-08C2-4CD1-A527-3C7D40185F4B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ42" sqref="AJ42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" width="2.125" style="18" customWidth="1"/>
+    <col min="19" max="16384" width="2.125" style="18"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2546,7 +2791,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2555,24 +2800,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2589,7 +2834,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2606,7 +2851,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2623,7 +2868,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2640,7 +2885,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2657,7 +2902,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2674,7 +2919,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2691,7 +2936,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2729,7 +2974,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2738,15 +2983,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2754,7 +2999,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2762,7 +3007,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2770,7 +3015,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2778,7 +3023,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2786,7 +3031,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2794,7 +3039,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2802,83 +3047,123 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>595</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>599</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C11:F14">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"사용"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>"사용안함"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9" xr:uid="{6A2F68C2-31AE-4997-BF61-43313098BDCC}">
       <formula1>"세력 1,세력 2,세력 3,세력 4"</formula1>
@@ -2888,6 +3173,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2895,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C062E1-69E2-4FBA-96FD-D298630C352B}">
   <dimension ref="A1:W229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2905,86 +3191,90 @@
     <col min="2" max="2" width="34.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="12" max="12" width="4.625" customWidth="1"/>
+    <col min="14" max="14" width="4.625" customWidth="1"/>
     <col min="15" max="23" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="A2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2996,9 +3286,15 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>602</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -3007,13 +3303,15 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="A3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3025,7 +3323,9 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>598</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -3036,13 +3336,15 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="A4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>601</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -3065,13 +3367,15 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="A5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>601</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3094,11 +3398,11 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>67</v>
+      <c r="A6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3123,11 +3427,11 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>69</v>
+      <c r="A7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3152,11 +3456,11 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>71</v>
+      <c r="A8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3181,11 +3485,11 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>73</v>
+      <c r="A9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3210,11 +3514,11 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>75</v>
+      <c r="A10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3239,11 +3543,11 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>77</v>
+      <c r="A11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3268,11 +3572,11 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>79</v>
+      <c r="A12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3297,11 +3601,11 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>81</v>
+      <c r="A13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3326,11 +3630,11 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>83</v>
+      <c r="A14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3355,11 +3659,11 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>85</v>
+      <c r="A15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3384,11 +3688,11 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>87</v>
+      <c r="A16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3413,11 +3717,11 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>89</v>
+      <c r="A17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3442,11 +3746,11 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>91</v>
+      <c r="A18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3471,11 +3775,11 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>93</v>
+      <c r="A19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3500,11 +3804,11 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>95</v>
+      <c r="A20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3529,11 +3833,11 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>97</v>
+      <c r="A21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3558,11 +3862,11 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>99</v>
+      <c r="A22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3587,11 +3891,11 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>101</v>
+      <c r="A23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3616,11 +3920,11 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>103</v>
+      <c r="A24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3645,11 +3949,11 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>105</v>
+      <c r="A25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3674,11 +3978,11 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>107</v>
+      <c r="A26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3703,11 +4007,11 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>109</v>
+      <c r="A27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3732,11 +4036,11 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>107</v>
+      <c r="A28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3761,11 +4065,11 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>112</v>
+      <c r="A29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3790,11 +4094,11 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>114</v>
+      <c r="A30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3819,11 +4123,11 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>116</v>
+      <c r="A31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3848,11 +4152,11 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>118</v>
+      <c r="A32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3877,11 +4181,11 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>71</v>
+      <c r="A33" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3906,11 +4210,11 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>121</v>
+      <c r="A34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3935,11 +4239,11 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>123</v>
+      <c r="A35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3964,11 +4268,11 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>125</v>
+      <c r="A36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3993,11 +4297,11 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>127</v>
+      <c r="A37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4022,11 +4326,11 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>129</v>
+      <c r="A38" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4051,11 +4355,11 @@
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>131</v>
+      <c r="A39" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4080,11 +4384,11 @@
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>133</v>
+      <c r="A40" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4109,11 +4413,11 @@
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>135</v>
+      <c r="A41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -4138,11 +4442,11 @@
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>137</v>
+      <c r="A42" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -4167,11 +4471,11 @@
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>139</v>
+      <c r="A43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4196,11 +4500,11 @@
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>141</v>
+      <c r="A44" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4225,11 +4529,11 @@
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>143</v>
+      <c r="A45" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4254,11 +4558,11 @@
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>145</v>
+      <c r="A46" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -4283,11 +4587,11 @@
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>147</v>
+      <c r="A47" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -4312,11 +4616,11 @@
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>149</v>
+      <c r="A48" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -4341,11 +4645,11 @@
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>151</v>
+      <c r="A49" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -4370,11 +4674,11 @@
       <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>153</v>
+      <c r="A50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -4399,11 +4703,11 @@
       <c r="W50" s="1"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>155</v>
+      <c r="A51" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -4428,11 +4732,11 @@
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>157</v>
+      <c r="A52" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -4457,11 +4761,11 @@
       <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>159</v>
+      <c r="A53" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -4486,11 +4790,11 @@
       <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>161</v>
+      <c r="A54" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -4515,11 +4819,11 @@
       <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>163</v>
+      <c r="A55" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -4544,11 +4848,11 @@
       <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>165</v>
+      <c r="A56" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -4573,11 +4877,11 @@
       <c r="W56" s="1"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>167</v>
+      <c r="A57" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -4602,11 +4906,11 @@
       <c r="W57" s="1"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>169</v>
+      <c r="A58" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -4631,11 +4935,11 @@
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>171</v>
+      <c r="A59" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -4660,11 +4964,11 @@
       <c r="W59" s="1"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>173</v>
+      <c r="A60" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -4689,11 +4993,11 @@
       <c r="W60" s="1"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>175</v>
+      <c r="A61" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -4718,11 +5022,11 @@
       <c r="W61" s="1"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>177</v>
+      <c r="A62" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -4747,11 +5051,11 @@
       <c r="W62" s="1"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>179</v>
+      <c r="A63" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -4776,11 +5080,11 @@
       <c r="W63" s="1"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>181</v>
+      <c r="A64" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -4805,11 +5109,11 @@
       <c r="W64" s="1"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>183</v>
+      <c r="A65" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -4834,11 +5138,11 @@
       <c r="W65" s="1"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>185</v>
+      <c r="A66" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -4863,11 +5167,11 @@
       <c r="W66" s="1"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>187</v>
+      <c r="A67" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -4892,11 +5196,11 @@
       <c r="W67" s="1"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>189</v>
+      <c r="A68" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -4921,11 +5225,11 @@
       <c r="W68" s="1"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>191</v>
+      <c r="A69" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -4950,11 +5254,11 @@
       <c r="W69" s="1"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>193</v>
+      <c r="A70" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -4979,11 +5283,11 @@
       <c r="W70" s="1"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>195</v>
+      <c r="A71" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -5008,11 +5312,11 @@
       <c r="W71" s="1"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>197</v>
+      <c r="A72" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -5037,11 +5341,11 @@
       <c r="W72" s="1"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>199</v>
+      <c r="A73" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -5066,11 +5370,11 @@
       <c r="W73" s="1"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>201</v>
+      <c r="A74" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -5095,11 +5399,11 @@
       <c r="W74" s="1"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>203</v>
+      <c r="A75" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -5124,11 +5428,11 @@
       <c r="W75" s="1"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>205</v>
+      <c r="A76" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -5153,11 +5457,11 @@
       <c r="W76" s="1"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>207</v>
+      <c r="A77" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -5182,11 +5486,11 @@
       <c r="W77" s="1"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>209</v>
+      <c r="A78" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -5211,11 +5515,11 @@
       <c r="W78" s="1"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>211</v>
+      <c r="A79" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -5240,11 +5544,11 @@
       <c r="W79" s="1"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>213</v>
+      <c r="A80" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -5269,11 +5573,11 @@
       <c r="W80" s="1"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>215</v>
+      <c r="A81" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -5298,11 +5602,11 @@
       <c r="W81" s="1"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>217</v>
+      <c r="A82" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -5327,11 +5631,11 @@
       <c r="W82" s="1"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>219</v>
+      <c r="A83" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -5356,11 +5660,11 @@
       <c r="W83" s="1"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>221</v>
+      <c r="A84" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -5385,11 +5689,11 @@
       <c r="W84" s="1"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>223</v>
+      <c r="A85" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -5414,11 +5718,11 @@
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>225</v>
+      <c r="A86" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -5443,11 +5747,11 @@
       <c r="W86" s="1"/>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>227</v>
+      <c r="A87" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -5472,11 +5776,11 @@
       <c r="W87" s="1"/>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>229</v>
+      <c r="A88" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -5501,11 +5805,11 @@
       <c r="W88" s="1"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>231</v>
+      <c r="A89" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -5530,11 +5834,11 @@
       <c r="W89" s="1"/>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>233</v>
+      <c r="A90" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -5559,11 +5863,11 @@
       <c r="W90" s="1"/>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>235</v>
+      <c r="A91" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -5588,11 +5892,11 @@
       <c r="W91" s="1"/>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>237</v>
+      <c r="A92" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -5617,11 +5921,11 @@
       <c r="W92" s="1"/>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>239</v>
+      <c r="A93" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -5646,11 +5950,11 @@
       <c r="W93" s="1"/>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>239</v>
+      <c r="A94" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -5675,11 +5979,11 @@
       <c r="W94" s="1"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>242</v>
+      <c r="A95" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -5704,11 +6008,11 @@
       <c r="W95" s="1"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>244</v>
+      <c r="A96" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -5733,11 +6037,11 @@
       <c r="W96" s="1"/>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>246</v>
+      <c r="A97" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -5762,11 +6066,11 @@
       <c r="W97" s="1"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>248</v>
+      <c r="A98" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -5791,11 +6095,11 @@
       <c r="W98" s="1"/>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>250</v>
+      <c r="A99" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -5820,11 +6124,11 @@
       <c r="W99" s="1"/>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>252</v>
+      <c r="A100" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -5849,11 +6153,11 @@
       <c r="W100" s="1"/>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>254</v>
+      <c r="A101" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -5878,11 +6182,11 @@
       <c r="W101" s="1"/>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>256</v>
+      <c r="A102" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -5907,11 +6211,11 @@
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>258</v>
+      <c r="A103" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -5936,11 +6240,11 @@
       <c r="W103" s="1"/>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>260</v>
+      <c r="A104" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -5965,11 +6269,11 @@
       <c r="W104" s="1"/>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>262</v>
+      <c r="A105" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -5994,11 +6298,11 @@
       <c r="W105" s="1"/>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>264</v>
+      <c r="A106" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -6023,11 +6327,11 @@
       <c r="W106" s="1"/>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>266</v>
+      <c r="A107" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -6052,11 +6356,11 @@
       <c r="W107" s="1"/>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>268</v>
+      <c r="A108" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -6081,11 +6385,11 @@
       <c r="W108" s="1"/>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>270</v>
+      <c r="A109" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -6110,11 +6414,11 @@
       <c r="W109" s="1"/>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>272</v>
+      <c r="A110" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -6139,11 +6443,11 @@
       <c r="W110" s="1"/>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>274</v>
+      <c r="A111" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -6168,11 +6472,11 @@
       <c r="W111" s="1"/>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>276</v>
+      <c r="A112" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -6197,11 +6501,11 @@
       <c r="W112" s="1"/>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>278</v>
+      <c r="A113" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -6226,11 +6530,11 @@
       <c r="W113" s="1"/>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>280</v>
+      <c r="A114" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -6255,11 +6559,11 @@
       <c r="W114" s="1"/>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>282</v>
+      <c r="A115" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -6284,11 +6588,11 @@
       <c r="W115" s="1"/>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>284</v>
+      <c r="A116" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -6313,11 +6617,11 @@
       <c r="W116" s="1"/>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>286</v>
+      <c r="A117" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -6342,11 +6646,11 @@
       <c r="W117" s="1"/>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>288</v>
+      <c r="A118" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -6371,11 +6675,11 @@
       <c r="W118" s="1"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>290</v>
+      <c r="A119" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -6400,11 +6704,11 @@
       <c r="W119" s="1"/>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>292</v>
+      <c r="A120" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -6429,11 +6733,11 @@
       <c r="W120" s="1"/>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>294</v>
+      <c r="A121" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -6458,11 +6762,11 @@
       <c r="W121" s="1"/>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>296</v>
+      <c r="A122" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -6487,11 +6791,11 @@
       <c r="W122" s="1"/>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>294</v>
+      <c r="A123" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -6516,11 +6820,11 @@
       <c r="W123" s="1"/>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>299</v>
+      <c r="A124" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -6545,11 +6849,11 @@
       <c r="W124" s="1"/>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>301</v>
+      <c r="A125" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -6574,11 +6878,11 @@
       <c r="W125" s="1"/>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>303</v>
+      <c r="A126" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -6603,11 +6907,11 @@
       <c r="W126" s="1"/>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>305</v>
+      <c r="A127" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -6632,11 +6936,11 @@
       <c r="W127" s="1"/>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>307</v>
+      <c r="A128" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -6661,11 +6965,11 @@
       <c r="W128" s="1"/>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>309</v>
+      <c r="A129" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -6690,11 +6994,11 @@
       <c r="W129" s="1"/>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>311</v>
+      <c r="A130" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -6719,11 +7023,11 @@
       <c r="W130" s="1"/>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>313</v>
+      <c r="A131" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -6748,11 +7052,11 @@
       <c r="W131" s="1"/>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>315</v>
+      <c r="A132" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -6777,11 +7081,11 @@
       <c r="W132" s="1"/>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>317</v>
+      <c r="A133" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -6806,11 +7110,11 @@
       <c r="W133" s="1"/>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>319</v>
+      <c r="A134" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -6835,11 +7139,11 @@
       <c r="W134" s="1"/>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>321</v>
+      <c r="A135" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -6864,11 +7168,11 @@
       <c r="W135" s="1"/>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>323</v>
+      <c r="A136" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -6893,11 +7197,11 @@
       <c r="W136" s="1"/>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>325</v>
+      <c r="A137" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -6922,11 +7226,11 @@
       <c r="W137" s="1"/>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>327</v>
+      <c r="A138" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -6951,11 +7255,11 @@
       <c r="W138" s="1"/>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>329</v>
+      <c r="A139" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -6980,11 +7284,11 @@
       <c r="W139" s="1"/>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>331</v>
+      <c r="A140" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -7009,11 +7313,11 @@
       <c r="W140" s="1"/>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>333</v>
+      <c r="A141" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -7038,11 +7342,11 @@
       <c r="W141" s="1"/>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>335</v>
+      <c r="A142" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -7067,11 +7371,11 @@
       <c r="W142" s="1"/>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>337</v>
+      <c r="A143" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -7096,11 +7400,11 @@
       <c r="W143" s="1"/>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>339</v>
+      <c r="A144" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -7125,11 +7429,11 @@
       <c r="W144" s="1"/>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>341</v>
+      <c r="A145" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -7154,11 +7458,11 @@
       <c r="W145" s="1"/>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>343</v>
+      <c r="A146" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -7183,11 +7487,11 @@
       <c r="W146" s="1"/>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>345</v>
+      <c r="A147" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -7212,11 +7516,11 @@
       <c r="W147" s="1"/>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>347</v>
+      <c r="A148" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -7241,11 +7545,11 @@
       <c r="W148" s="1"/>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>349</v>
+      <c r="A149" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -7270,11 +7574,11 @@
       <c r="W149" s="1"/>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>351</v>
+      <c r="A150" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -7299,11 +7603,11 @@
       <c r="W150" s="1"/>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>353</v>
+      <c r="A151" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -7328,11 +7632,11 @@
       <c r="W151" s="1"/>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>355</v>
+      <c r="A152" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -7357,11 +7661,11 @@
       <c r="W152" s="1"/>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>357</v>
+      <c r="A153" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -7386,11 +7690,11 @@
       <c r="W153" s="1"/>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A154" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>359</v>
+      <c r="A154" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -7415,11 +7719,11 @@
       <c r="W154" s="1"/>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>361</v>
+      <c r="A155" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -7444,11 +7748,11 @@
       <c r="W155" s="1"/>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>363</v>
+      <c r="A156" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -7473,11 +7777,11 @@
       <c r="W156" s="1"/>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>365</v>
+      <c r="A157" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -7502,11 +7806,11 @@
       <c r="W157" s="1"/>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A158" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>367</v>
+      <c r="A158" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -7531,11 +7835,11 @@
       <c r="W158" s="1"/>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>369</v>
+      <c r="A159" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -7560,11 +7864,11 @@
       <c r="W159" s="1"/>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>371</v>
+      <c r="A160" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -7589,11 +7893,11 @@
       <c r="W160" s="1"/>
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>373</v>
+      <c r="A161" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -7618,11 +7922,11 @@
       <c r="W161" s="1"/>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A162" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>375</v>
+      <c r="A162" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -7647,11 +7951,11 @@
       <c r="W162" s="1"/>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>371</v>
+      <c r="A163" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -7676,11 +7980,11 @@
       <c r="W163" s="1"/>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>378</v>
+      <c r="A164" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -7705,11 +8009,11 @@
       <c r="W164" s="1"/>
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>380</v>
+      <c r="A165" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -7734,11 +8038,11 @@
       <c r="W165" s="1"/>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>382</v>
+      <c r="A166" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -7763,11 +8067,11 @@
       <c r="W166" s="1"/>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>384</v>
+      <c r="A167" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -7792,11 +8096,11 @@
       <c r="W167" s="1"/>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>386</v>
+      <c r="A168" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -7821,11 +8125,11 @@
       <c r="W168" s="1"/>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>388</v>
+      <c r="A169" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -7850,11 +8154,11 @@
       <c r="W169" s="1"/>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>390</v>
+      <c r="A170" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -7879,11 +8183,11 @@
       <c r="W170" s="1"/>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>392</v>
+      <c r="A171" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -7908,11 +8212,11 @@
       <c r="W171" s="1"/>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>394</v>
+      <c r="A172" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -7937,11 +8241,11 @@
       <c r="W172" s="1"/>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>396</v>
+      <c r="A173" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -7966,11 +8270,11 @@
       <c r="W173" s="1"/>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>398</v>
+      <c r="A174" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -7995,11 +8299,11 @@
       <c r="W174" s="1"/>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>400</v>
+      <c r="A175" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -8024,11 +8328,11 @@
       <c r="W175" s="1"/>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>402</v>
+      <c r="A176" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -8053,11 +8357,11 @@
       <c r="W176" s="1"/>
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>404</v>
+      <c r="A177" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -8082,11 +8386,11 @@
       <c r="W177" s="1"/>
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>406</v>
+      <c r="A178" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -8111,11 +8415,11 @@
       <c r="W178" s="1"/>
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>408</v>
+      <c r="A179" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -8140,11 +8444,11 @@
       <c r="W179" s="1"/>
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>410</v>
+      <c r="A180" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -8169,11 +8473,11 @@
       <c r="W180" s="1"/>
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>412</v>
+      <c r="A181" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -8198,11 +8502,11 @@
       <c r="W181" s="1"/>
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>414</v>
+      <c r="A182" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -8227,11 +8531,11 @@
       <c r="W182" s="1"/>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>416</v>
+      <c r="A183" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -8256,11 +8560,11 @@
       <c r="W183" s="1"/>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>418</v>
+      <c r="A184" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -8285,11 +8589,11 @@
       <c r="W184" s="1"/>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>420</v>
+      <c r="A185" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -8314,11 +8618,11 @@
       <c r="W185" s="1"/>
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>422</v>
+      <c r="A186" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -8343,11 +8647,11 @@
       <c r="W186" s="1"/>
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>424</v>
+      <c r="A187" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -8372,11 +8676,11 @@
       <c r="W187" s="1"/>
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>426</v>
+      <c r="A188" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -8401,11 +8705,11 @@
       <c r="W188" s="1"/>
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>400</v>
+      <c r="A189" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -8430,11 +8734,11 @@
       <c r="W189" s="1"/>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>429</v>
+      <c r="A190" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>427</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -8459,11 +8763,11 @@
       <c r="W190" s="1"/>
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>431</v>
+      <c r="A191" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -8488,11 +8792,11 @@
       <c r="W191" s="1"/>
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>433</v>
+      <c r="A192" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -8517,11 +8821,11 @@
       <c r="W192" s="1"/>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>435</v>
+      <c r="A193" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -8546,11 +8850,11 @@
       <c r="W193" s="1"/>
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>437</v>
+      <c r="A194" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -8575,11 +8879,11 @@
       <c r="W194" s="1"/>
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>439</v>
+      <c r="A195" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -8604,11 +8908,11 @@
       <c r="W195" s="1"/>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>441</v>
+      <c r="A196" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -8633,11 +8937,11 @@
       <c r="W196" s="1"/>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>443</v>
+      <c r="A197" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -8662,11 +8966,11 @@
       <c r="W197" s="1"/>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>445</v>
+      <c r="A198" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -8691,11 +8995,11 @@
       <c r="W198" s="1"/>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>447</v>
+      <c r="A199" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -8720,11 +9024,11 @@
       <c r="W199" s="1"/>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>449</v>
+      <c r="A200" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -8749,11 +9053,11 @@
       <c r="W200" s="1"/>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>451</v>
+      <c r="A201" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -8778,11 +9082,11 @@
       <c r="W201" s="1"/>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>453</v>
+      <c r="A202" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -8807,11 +9111,11 @@
       <c r="W202" s="1"/>
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>455</v>
+      <c r="A203" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -8836,11 +9140,11 @@
       <c r="W203" s="1"/>
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A204" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>457</v>
+      <c r="A204" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -8865,11 +9169,11 @@
       <c r="W204" s="1"/>
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A205" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>459</v>
+      <c r="A205" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -8894,11 +9198,11 @@
       <c r="W205" s="1"/>
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A206" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>461</v>
+      <c r="A206" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -8923,11 +9227,11 @@
       <c r="W206" s="1"/>
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A207" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>463</v>
+      <c r="A207" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -8952,11 +9256,11 @@
       <c r="W207" s="1"/>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A208" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>465</v>
+      <c r="A208" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -8981,11 +9285,11 @@
       <c r="W208" s="1"/>
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>467</v>
+      <c r="A209" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -9010,11 +9314,11 @@
       <c r="W209" s="1"/>
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>469</v>
+      <c r="A210" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>467</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -9039,11 +9343,11 @@
       <c r="W210" s="1"/>
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A211" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>471</v>
+      <c r="A211" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -9068,11 +9372,11 @@
       <c r="W211" s="1"/>
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>473</v>
+      <c r="A212" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -9097,11 +9401,11 @@
       <c r="W212" s="1"/>
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>475</v>
+      <c r="A213" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -9126,11 +9430,11 @@
       <c r="W213" s="1"/>
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A214" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B214" s="7" t="s">
-        <v>477</v>
+      <c r="A214" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>475</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -9155,11 +9459,11 @@
       <c r="W214" s="1"/>
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>479</v>
+      <c r="A215" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>477</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -9184,11 +9488,11 @@
       <c r="W215" s="1"/>
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A216" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>481</v>
+      <c r="A216" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>479</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -9213,11 +9517,11 @@
       <c r="W216" s="1"/>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>483</v>
+      <c r="A217" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -9242,11 +9546,11 @@
       <c r="W217" s="1"/>
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A218" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>485</v>
+      <c r="A218" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -9271,11 +9575,11 @@
       <c r="W218" s="1"/>
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A219" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>487</v>
+      <c r="A219" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -9300,11 +9604,11 @@
       <c r="W219" s="1"/>
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A220" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>489</v>
+      <c r="A220" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -9329,11 +9633,11 @@
       <c r="W220" s="1"/>
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>491</v>
+      <c r="A221" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -9358,11 +9662,11 @@
       <c r="W221" s="1"/>
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>493</v>
+      <c r="A222" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>491</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -9387,11 +9691,11 @@
       <c r="W222" s="1"/>
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A223" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>495</v>
+      <c r="A223" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>493</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -9416,11 +9720,11 @@
       <c r="W223" s="1"/>
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A224" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>497</v>
+      <c r="A224" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -9445,11 +9749,11 @@
       <c r="W224" s="1"/>
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>499</v>
+      <c r="A225" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -9474,11 +9778,11 @@
       <c r="W225" s="1"/>
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A226" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>501</v>
+      <c r="A226" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>499</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -9503,11 +9807,11 @@
       <c r="W226" s="1"/>
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A227" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>503</v>
+      <c r="A227" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>501</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -9532,11 +9836,11 @@
       <c r="W227" s="1"/>
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A228" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>505</v>
+      <c r="A228" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>503</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -9561,11 +9865,11 @@
       <c r="W228" s="1"/>
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>507</v>
+      <c r="A229" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>505</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -9591,6 +9895,33 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>"사용"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>"불가"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:W1048576">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"기본"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>"사용"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"불가"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"수정"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"기본"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{3BB1E373-B893-49E0-A7A5-17559A82DB78}">
       <formula1>"불가,사용"</formula1>
@@ -9610,8 +9941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E315183-D2D7-4157-BD73-32167AD530D3}">
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9619,190 +9950,199 @@
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.625" customWidth="1"/>
-    <col min="10" max="35" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="10" max="35" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="13" t="s">
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13" t="s">
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13" t="s">
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI1" s="13"/>
+      <c r="AI1" s="17"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>50</v>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="A3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>601</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -9830,20 +10170,21 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="A4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -9871,11 +10212,11 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>542</v>
+      <c r="A5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -9912,11 +10253,11 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>543</v>
+      <c r="A6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9953,11 +10294,11 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>544</v>
+      <c r="A7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -9994,11 +10335,11 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>545</v>
+      <c r="A8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -10035,11 +10376,11 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>546</v>
+      <c r="A9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -10076,11 +10417,11 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>547</v>
+      <c r="A10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -10117,11 +10458,11 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>548</v>
+      <c r="A11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -10158,11 +10499,11 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>549</v>
+      <c r="A12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -10199,11 +10540,11 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>550</v>
+      <c r="A13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>548</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -10240,11 +10581,11 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>551</v>
+      <c r="A14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>549</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -10281,11 +10622,11 @@
       <c r="AI14" s="1"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>552</v>
+      <c r="A15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>550</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -10322,11 +10663,11 @@
       <c r="AI15" s="1"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>553</v>
+      <c r="A16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -10363,11 +10704,11 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>554</v>
+      <c r="A17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>552</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -10404,11 +10745,11 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>555</v>
+      <c r="A18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>553</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -10445,11 +10786,11 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>556</v>
+      <c r="A19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>554</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -10486,11 +10827,11 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>557</v>
+      <c r="A20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -10527,11 +10868,11 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>558</v>
+      <c r="A21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -10568,11 +10909,11 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>559</v>
+      <c r="A22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -10609,11 +10950,11 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>560</v>
+      <c r="A23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -10650,11 +10991,11 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>561</v>
+      <c r="A24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -10691,11 +11032,11 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>562</v>
+      <c r="A25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -10732,11 +11073,11 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>563</v>
+      <c r="A26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>561</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -10773,11 +11114,11 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>564</v>
+      <c r="A27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -10814,11 +11155,11 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>565</v>
+      <c r="A28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -10855,11 +11196,11 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>566</v>
+      <c r="A29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -10896,11 +11237,11 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>567</v>
+      <c r="A30" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>565</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -10937,11 +11278,11 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>568</v>
+      <c r="A31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -10978,11 +11319,11 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>569</v>
+      <c r="A32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>567</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -11019,11 +11360,11 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>570</v>
+      <c r="A33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -11060,11 +11401,11 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>571</v>
+      <c r="A34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -11101,11 +11442,11 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>572</v>
+      <c r="A35" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -11142,11 +11483,11 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>573</v>
+      <c r="A36" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -11183,11 +11524,11 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>574</v>
+      <c r="A37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>572</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -11224,11 +11565,11 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>575</v>
+      <c r="A38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -11265,11 +11606,11 @@
       <c r="AI38" s="1"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>576</v>
+      <c r="A39" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -11306,11 +11647,11 @@
       <c r="AI39" s="1"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>577</v>
+      <c r="A40" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>575</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -11347,11 +11688,11 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>578</v>
+      <c r="A41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -11388,11 +11729,11 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>579</v>
+      <c r="A42" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -11429,11 +11770,11 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>580</v>
+      <c r="A43" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -11470,11 +11811,11 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>581</v>
+      <c r="A44" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>579</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -11511,11 +11852,11 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>582</v>
+      <c r="A45" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>580</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -11552,11 +11893,11 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>583</v>
+      <c r="A46" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -11593,11 +11934,11 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>584</v>
+      <c r="A47" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -11634,11 +11975,11 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>532</v>
+      <c r="A48" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -11675,11 +12016,11 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>532</v>
+      <c r="A49" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -11716,11 +12057,11 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>585</v>
+      <c r="A50" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -11757,11 +12098,11 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>532</v>
+      <c r="A51" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -11798,11 +12139,11 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>586</v>
+      <c r="A52" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>584</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -11839,11 +12180,11 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>532</v>
+      <c r="A53" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -11880,11 +12221,11 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>587</v>
+      <c r="A54" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>585</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -11921,11 +12262,11 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>588</v>
+      <c r="A55" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>586</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -11962,11 +12303,11 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>589</v>
+      <c r="A56" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -12003,11 +12344,11 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>590</v>
+      <c r="A57" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -12044,11 +12385,11 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>532</v>
+      <c r="A58" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -12085,11 +12426,11 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>532</v>
+      <c r="A59" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -12126,11 +12467,11 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>532</v>
+      <c r="A60" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -12167,11 +12508,11 @@
       <c r="AI60" s="1"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>532</v>
+      <c r="A61" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -12208,11 +12549,11 @@
       <c r="AI61" s="1"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>532</v>
+      <c r="A62" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -12249,11 +12590,11 @@
       <c r="AI62" s="1"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>532</v>
+      <c r="A63" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -12290,7 +12631,8 @@
       <c r="AI63" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
@@ -12306,8 +12648,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -12316,6 +12656,19 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3:C1048576">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"기본"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"수정"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:AI1048576 F4">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{7E41FDDA-A09F-41E6-9995-569436026D8C}">
       <formula1>"기본,수정"</formula1>
@@ -12330,7 +12683,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12338,1036 +12691,1852 @@
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.625" customWidth="1"/>
-    <col min="8" max="16" width="5.625" customWidth="1"/>
+    <col min="8" max="16" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="A2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>509</v>
+      <c r="A3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>507</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>510</v>
+      <c r="A4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>508</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>511</v>
+      <c r="A5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>509</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>123</v>
+      <c r="A6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>512</v>
+      <c r="A7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>510</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>513</v>
+      <c r="A8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>511</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>514</v>
+      <c r="A9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>512</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>515</v>
+      <c r="A10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>513</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>516</v>
+      <c r="A11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>517</v>
+      <c r="A12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>518</v>
+      <c r="A13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>519</v>
+      <c r="A14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>517</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>520</v>
+      <c r="A15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>457</v>
+      <c r="A16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>521</v>
+      <c r="A17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>522</v>
+      <c r="A18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>523</v>
+      <c r="A19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>524</v>
+      <c r="A20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>525</v>
+      <c r="A21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>523</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>526</v>
+      <c r="A22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>524</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>527</v>
+      <c r="A23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>528</v>
+      <c r="A24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>526</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>529</v>
+      <c r="A25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>527</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>530</v>
+      <c r="A26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>531</v>
+      <c r="A27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>532</v>
+      <c r="A28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>533</v>
+      <c r="A29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>531</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>534</v>
+      <c r="A30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>532</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>535</v>
+      <c r="A31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>536</v>
+      <c r="A32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>537</v>
+      <c r="A33" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>535</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>538</v>
+      <c r="A34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>532</v>
+      <c r="A35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>539</v>
+      <c r="A36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>537</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>532</v>
+      <c r="A37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>532</v>
+      <c r="A38" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>532</v>
+      <c r="A39" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>532</v>
+      <c r="A40" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>532</v>
+      <c r="A41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>532</v>
+      <c r="A42" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>532</v>
+      <c r="A43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>532</v>
+      <c r="A44" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>532</v>
+      <c r="A45" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"수정"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"기본"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:P1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"연구완료"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"연구불가"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"기본값"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"연구가능"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:P2" xr:uid="{5FC18652-6B22-4630-902E-BD9D374DBA2E}">
-      <formula1>"불가,기본,사용"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{68D4C247-23F7-4297-9D98-DC7F218AE645}">
-      <formula1>"불가,사용"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{7558AE98-A833-4D10-9006-285C24223F02}">
       <formula1>"기본,수정"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:P45" xr:uid="{8BCAD6A1-A118-492D-BB39-283AFD0E59FE}">
+      <formula1>"기본값,연구불가,연구가능,연구완료"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H45" xr:uid="{26EF79BB-00C9-4BFD-B92B-14B7503CA0F5}">
+      <formula1>"연구불가,연구가능,연구완료"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13376,125 +14545,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8F3F34-96E7-4036-BB90-31B1C013B0C2}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="1" max="1" width="34.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13504,25 +14573,57 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F427A8E-D922-4DE1-BFE8-AF97585DCCEB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{BAA34BB2-8940-4411-AC26-C0B68B62C2C6}">
+      <formula1>"badlands,platform,install,AshWorld,Jungle,Desert,Ice,Twilight"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB55077-B86B-4C59-9806-9A4414EEA8ED}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="50.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
